--- a/xl/trade.xlsx
+++ b/xl/trade.xlsx
@@ -477,35 +477,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -791,10 +791,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,21 +810,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="4"/>
@@ -833,20 +833,20 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="15"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="4"/>
@@ -855,17 +855,17 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -886,7 +886,7 @@
       <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -979,21 +979,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="5">
         <f>SUM(G7:G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5">
-        <f>E12*F12</f>
+        <f t="shared" ref="G12:G38" si="0">E12*F12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
@@ -1030,13 +1030,13 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1050,13 +1050,13 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1068,13 +1068,13 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
@@ -1086,13 +1086,13 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
@@ -1102,13 +1102,13 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1122,13 +1122,13 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="5">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
@@ -1140,13 +1140,13 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -1158,13 +1158,13 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="5">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -1176,13 +1176,13 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>29</v>
@@ -1212,12 +1212,12 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>28</v>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
         <v>27</v>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>26</v>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5">
-        <f>E26*F26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>25</v>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="5">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>24</v>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5">
-        <f>E28*F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
         <v>23</v>
@@ -1320,12 +1320,12 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5">
-        <f>E29*F29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
         <v>22</v>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="5">
-        <f>E30*F30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
         <v>21</v>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="5">
-        <f>E31*F31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
         <v>20</v>
@@ -1374,12 +1374,12 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="5">
-        <f>E32*F32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>19</v>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="5">
-        <f>E33*F33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>18</v>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="5">
-        <f>E34*F34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -1428,12 +1428,12 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="5">
-        <f>E35*F35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="5">
-        <f>E36*F36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -1464,12 +1464,12 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="5">
-        <f>E37*F37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -1482,19 +1482,19 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="5">
-        <f>E38*F38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="5">
         <f>SUM(G12:G38)</f>
         <v>0</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="5">
-        <f>E40*F40</f>
+        <f t="shared" ref="G40:G47" si="1">E40*F40</f>
         <v>0</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="5">
-        <f>E41*F41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="5">
-        <f>E42*F42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="5">
-        <f>E43*F43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="5">
-        <f>E44*F44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1608,7 +1608,19 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="5">
-        <f>E45*F45</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/xl/trade.xlsx
+++ b/xl/trade.xlsx
@@ -9,7 +9,7 @@
     <sheet name="거래명세서" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,19 +90,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -126,6 +113,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -138,30 +149,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -182,14 +169,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -201,61 +185,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -600,969 +590,989 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="12" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.5" customWidth="1" style="3" min="2" max="2"/>
-    <col width="22.875" customWidth="1" style="3" min="3" max="3"/>
-    <col width="9" customWidth="1" style="5" min="4" max="4"/>
-    <col width="11.75" customWidth="1" style="17" min="5" max="5"/>
-    <col width="9" customWidth="1" style="17" min="6" max="6"/>
-    <col width="12.875" customWidth="1" style="19" min="7" max="7"/>
-    <col width="9" customWidth="1" style="3" min="8" max="16384"/>
+    <col width="12" customWidth="1" style="14" min="1" max="1"/>
+    <col width="13.5" customWidth="1" style="14" min="2" max="2"/>
+    <col width="22.875" customWidth="1" style="14" min="3" max="3"/>
+    <col width="9" customWidth="1" style="15" min="4" max="4"/>
+    <col width="11.75" customWidth="1" style="16" min="5" max="5"/>
+    <col width="9" customWidth="1" style="16" min="6" max="6"/>
+    <col width="12.875" customWidth="1" style="24" min="7" max="7"/>
+    <col width="9" customWidth="1" style="14" min="8" max="8"/>
+    <col width="9" customWidth="1" style="14" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>거 래 명 세 서</t>
         </is>
       </c>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>상호</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="B2" s="15" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>사업자등록번호</t>
         </is>
       </c>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="20" t="n"/>
+      <c r="E2" s="15" t="n"/>
+      <c r="F2" s="15" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>사업장주소</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="20" t="n"/>
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>고인 성명</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>상주명</t>
         </is>
       </c>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="20" t="n"/>
+      <c r="E4" s="15" t="n"/>
+      <c r="F4" s="15" t="n"/>
+      <c r="G4" s="25" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>조회기간</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="20" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
+      <c r="F5" s="15" t="n"/>
+      <c r="G5" s="25" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="18" t="inlineStr">
         <is>
           <t>대분류</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>소분류</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>물품명</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="18" t="inlineStr">
         <is>
           <t>단위</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>단가</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="18" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="G6" s="21" t="inlineStr">
+      <c r="G6" s="26" t="inlineStr">
         <is>
           <t>금액</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>안치료</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>안치료</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>안치료</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>1시간</t>
         </is>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="22" t="n">
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>빈소임대료</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>빈소임대료</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>특101 분향실</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>1시간</t>
         </is>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="6" t="n">
         <v>65000</v>
       </c>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="22" t="n">
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>입관인건비</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>입관인건비</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>대렴인건비</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>1회</t>
         </is>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="6" t="n">
         <v>300000</v>
       </c>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="22" t="n">
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>청소료</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>청소료</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>청소료</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>1회</t>
         </is>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="6" t="n">
         <v>35000</v>
       </c>
-      <c r="F10" s="10" t="n"/>
-      <c r="G10" s="22" t="n">
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>소 계</t>
         </is>
       </c>
-      <c r="B11" s="23" t="n"/>
-      <c r="C11" s="23" t="n"/>
-      <c r="D11" s="23" t="n"/>
-      <c r="E11" s="23" t="n"/>
-      <c r="F11" s="24" t="n"/>
-      <c r="G11" s="22" t="n">
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n"/>
+      <c r="F11" s="20" t="n"/>
+      <c r="G11" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="21" t="inlineStr">
         <is>
           <t>장의용품</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>수의</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>가람9호</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>벌</t>
         </is>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="6" t="n">
         <v>400000</v>
       </c>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="22" t="n">
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="n"/>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="A13" s="22" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>관</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>관 오동0.6특-가람</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="n">
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="n">
         <v>180000</v>
       </c>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="22" t="n">
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="n"/>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="A14" s="22" t="n"/>
+      <c r="B14" s="21" t="inlineStr">
         <is>
           <t>상복</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>1남상복</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>벌</t>
         </is>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="6" t="n">
         <v>40000</v>
       </c>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="22" t="n">
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="n"/>
-      <c r="B15" s="25" t="n"/>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="A15" s="22" t="n"/>
+      <c r="B15" s="22" t="n"/>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>1넥타이</t>
         </is>
       </c>
-      <c r="D15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="n">
+      <c r="D15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F15" s="10" t="n"/>
-      <c r="G15" s="22" t="n">
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="n"/>
-      <c r="B16" s="25" t="n"/>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="A16" s="22" t="n"/>
+      <c r="B16" s="22" t="n"/>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>1여상복</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>벌</t>
         </is>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="6" t="n">
         <v>25000</v>
       </c>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="22" t="n">
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="n"/>
-      <c r="B17" s="26" t="n"/>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="A17" s="22" t="n"/>
+      <c r="B17" s="23" t="n"/>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>1와이셔츠</t>
         </is>
       </c>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="10" t="n">
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="22" t="n">
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="n"/>
-      <c r="B18" s="15" t="inlineStr">
+      <c r="A18" s="22" t="n"/>
+      <c r="B18" s="21" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>알코올-가람</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>종</t>
         </is>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="6" t="n">
         <v>6000</v>
       </c>
-      <c r="F18" s="10" t="n"/>
-      <c r="G18" s="22" t="n">
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="n"/>
-      <c r="B19" s="25" t="n"/>
-      <c r="C19" s="9" t="inlineStr">
+      <c r="A19" s="22" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>제단장식-건양11호</t>
         </is>
       </c>
-      <c r="D19" s="9" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>세트</t>
         </is>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="6" t="n">
         <v>400000</v>
       </c>
-      <c r="F19" s="10" t="n"/>
-      <c r="G19" s="22" t="n">
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="n"/>
-      <c r="B20" s="25" t="n"/>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="A20" s="22" t="n"/>
+      <c r="B20" s="22" t="n"/>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>제단장식-헌화50송이</t>
         </is>
       </c>
-      <c r="D20" s="9" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>송이</t>
         </is>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="6" t="n">
         <v>50000</v>
       </c>
-      <c r="F20" s="10" t="n"/>
-      <c r="G20" s="22" t="n">
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="n"/>
-      <c r="B21" s="25" t="n"/>
-      <c r="C21" s="9" t="inlineStr">
+      <c r="A21" s="22" t="n"/>
+      <c r="B21" s="22" t="n"/>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>체엑차단제-가람</t>
         </is>
       </c>
-      <c r="D21" s="9" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>종</t>
         </is>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E21" s="6" t="n">
         <v>60000</v>
       </c>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="22" t="n">
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="n"/>
-      <c r="B22" s="26" t="n"/>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="A22" s="22" t="n"/>
+      <c r="B22" s="23" t="n"/>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>항균티슈-가람</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>개</t>
         </is>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="6" t="n">
         <v>19000</v>
       </c>
-      <c r="F22" s="10" t="n"/>
-      <c r="G22" s="22" t="n">
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="n"/>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="9" t="inlineStr">
+      <c r="A23" s="22" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>1고급남완장리본셋트-가람</t>
         </is>
       </c>
-      <c r="D23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="n">
+      <c r="D23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>8000</v>
       </c>
-      <c r="F23" s="10" t="n"/>
-      <c r="G23" s="22" t="n">
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="n"/>
-      <c r="B24" s="9" t="n"/>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="A24" s="22" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>1고급여상주리본-가람</t>
         </is>
       </c>
-      <c r="D24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="n">
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F24" s="10" t="n"/>
-      <c r="G24" s="22" t="n">
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="n"/>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="A25" s="22" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>결관바-가람</t>
         </is>
       </c>
-      <c r="D25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="n">
+      <c r="D25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="n">
         <v>25000</v>
       </c>
-      <c r="F25" s="10" t="n"/>
-      <c r="G25" s="22" t="n">
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="n"/>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="A26" s="22" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>대렴셋트-가람</t>
         </is>
       </c>
-      <c r="D26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="n">
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>85000</v>
       </c>
-      <c r="F26" s="10" t="n"/>
-      <c r="G26" s="22" t="n">
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="n"/>
-      <c r="B27" s="9" t="n"/>
-      <c r="C27" s="9" t="inlineStr">
+      <c r="A27" s="22" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>수세포-가람</t>
         </is>
       </c>
-      <c r="D27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="n">
+      <c r="D27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="n">
         <v>13000</v>
       </c>
-      <c r="F27" s="10" t="n"/>
-      <c r="G27" s="22" t="n">
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="n"/>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="9" t="inlineStr">
+      <c r="A28" s="22" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>안치대-가람</t>
         </is>
       </c>
-      <c r="D28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="n">
+      <c r="D28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="n">
         <v>30000</v>
       </c>
-      <c r="F28" s="10" t="n"/>
-      <c r="G28" s="22" t="n">
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="n"/>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="9" t="inlineStr">
+      <c r="A29" s="22" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>액자리본-가람</t>
         </is>
       </c>
-      <c r="D29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10" t="n">
+      <c r="D29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="F29" s="10" t="n"/>
-      <c r="G29" s="22" t="n">
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="n"/>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="9" t="inlineStr">
+      <c r="A30" s="22" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>염보-가람</t>
         </is>
       </c>
-      <c r="D30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="n">
+      <c r="D30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="n">
         <v>90000</v>
       </c>
-      <c r="F30" s="10" t="n"/>
-      <c r="G30" s="22" t="n">
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="n"/>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="9" t="inlineStr">
+      <c r="A31" s="22" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>우단관보-가람</t>
         </is>
       </c>
-      <c r="D31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="n">
+      <c r="D31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="n">
         <v>41000</v>
       </c>
-      <c r="F31" s="10" t="n"/>
-      <c r="G31" s="22" t="n">
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="n"/>
-      <c r="B32" s="9" t="n"/>
-      <c r="C32" s="9" t="inlineStr">
+      <c r="A32" s="22" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>위생용품세트-가람</t>
         </is>
       </c>
-      <c r="D32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="n">
+      <c r="D32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="n">
         <v>120000</v>
       </c>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="22" t="n">
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="n"/>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="A33" s="22" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>인견명정-가람</t>
         </is>
       </c>
-      <c r="D33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10" t="n">
+      <c r="D33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="n">
         <v>37000</v>
       </c>
-      <c r="F33" s="10" t="n"/>
-      <c r="G33" s="22" t="n">
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="n"/>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="inlineStr">
+      <c r="A34" s="22" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>창호지-가람</t>
         </is>
       </c>
-      <c r="D34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10" t="n">
+      <c r="D34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="F34" s="10" t="n"/>
-      <c r="G34" s="22" t="n">
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="n"/>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="A35" s="22" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>청결세트</t>
         </is>
       </c>
-      <c r="D35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10" t="n">
+      <c r="D35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="n">
         <v>45000</v>
       </c>
-      <c r="F35" s="10" t="n"/>
-      <c r="G35" s="22" t="n">
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="n"/>
-      <c r="B36" s="9" t="n"/>
-      <c r="C36" s="9" t="inlineStr">
+      <c r="A36" s="22" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>탈지면-가람</t>
         </is>
       </c>
-      <c r="D36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10" t="n">
+      <c r="D36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="F36" s="10" t="n"/>
-      <c r="G36" s="22" t="n">
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="n"/>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="A37" s="22" t="n"/>
+      <c r="B37" s="5" t="n"/>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>향나무위패-가람</t>
         </is>
       </c>
-      <c r="D37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10" t="n">
+      <c r="D37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="n">
         <v>30000</v>
       </c>
-      <c r="F37" s="10" t="n"/>
-      <c r="G37" s="22" t="n">
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="n"/>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="inlineStr">
+      <c r="A38" s="23" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>혼백틀-가람</t>
         </is>
       </c>
-      <c r="D38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="n">
+      <c r="D38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="F38" s="10" t="n"/>
-      <c r="G38" s="22" t="n">
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="inlineStr">
+      <c r="A39" s="18" t="inlineStr">
         <is>
           <t>소 계</t>
         </is>
       </c>
-      <c r="B39" s="23" t="n"/>
-      <c r="C39" s="23" t="n"/>
-      <c r="D39" s="23" t="n"/>
-      <c r="E39" s="23" t="n"/>
-      <c r="F39" s="24" t="n"/>
-      <c r="G39" s="22" t="n">
+      <c r="B39" s="19" t="n"/>
+      <c r="C39" s="19" t="n"/>
+      <c r="D39" s="19" t="n"/>
+      <c r="E39" s="19" t="n"/>
+      <c r="F39" s="20" t="n"/>
+      <c r="G39" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>식당판매</t>
         </is>
       </c>
-      <c r="B40" s="9" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>국(반)</t>
         </is>
       </c>
-      <c r="C40" s="9" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>멸치고추볶음(대)</t>
         </is>
       </c>
-      <c r="D40" s="9" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>대</t>
         </is>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="6" t="n">
         <v>56000</v>
       </c>
-      <c r="F40" s="10" t="n"/>
-      <c r="G40" s="22" t="n">
+      <c r="F40" s="6" t="n"/>
+      <c r="G40" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="n"/>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="inlineStr">
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>모듬전</t>
         </is>
       </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="E41" s="10" t="n">
+      <c r="E41" s="6" t="n">
         <v>29000</v>
       </c>
-      <c r="F41" s="10" t="n"/>
-      <c r="G41" s="22" t="n">
+      <c r="F41" s="6" t="n"/>
+      <c r="G41" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="n"/>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="inlineStr">
+      <c r="A42" s="5" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>배추김치</t>
         </is>
       </c>
-      <c r="D42" s="9" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E42" s="6" t="n">
         <v>16000</v>
       </c>
-      <c r="F42" s="10" t="n"/>
-      <c r="G42" s="22" t="n">
+      <c r="F42" s="6" t="n"/>
+      <c r="G42" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="n"/>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="inlineStr">
+      <c r="A43" s="5" t="n"/>
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>삼겹수육(국산)</t>
         </is>
       </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E43" s="6" t="n">
         <v>46500</v>
       </c>
-      <c r="F43" s="10" t="n"/>
-      <c r="G43" s="22" t="n">
+      <c r="F43" s="6" t="n"/>
+      <c r="G43" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="n"/>
-      <c r="B44" s="12" t="n"/>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="A44" s="18" t="n"/>
+      <c r="B44" s="18" t="n"/>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>새우된장국밥</t>
         </is>
       </c>
-      <c r="D44" s="9" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>인분</t>
         </is>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E44" s="6" t="n">
         <v>4700</v>
       </c>
-      <c r="F44" s="10" t="n"/>
-      <c r="G44" s="22" t="n">
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12" t="n"/>
-      <c r="B45" s="12" t="n"/>
-      <c r="C45" s="9" t="inlineStr">
+      <c r="A45" s="18" t="n"/>
+      <c r="B45" s="18" t="n"/>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>새우젓</t>
         </is>
       </c>
-      <c r="D45" s="9" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>통</t>
         </is>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E45" s="6" t="n">
         <v>13000</v>
       </c>
-      <c r="F45" s="10" t="n"/>
-      <c r="G45" s="22" t="n">
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
+      <c r="C46" s="14" t="inlineStr">
+        <is>
+          <t>접시100</t>
+        </is>
+      </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="14" t="inlineStr">
+        <is>
+          <t>녹말요지</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="14" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A39:F39"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A38"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
